--- a/cpct-web/src/main/resources/file/trialOperationTemplate.xlsx
+++ b/cpct-web/src/main/resources/file/trialOperationTemplate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A71985-E711-4428-91A1-C6AC5DDBD819}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29D4A8-74BA-4E08-9229-D504DEE04D4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CUST_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,43 +42,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123sdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124sdf</t>
-  </si>
-  <si>
-    <t>125sdf</t>
-  </si>
-  <si>
-    <t>126sdf</t>
-  </si>
-  <si>
-    <t>127sdf</t>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产集成编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕品品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-H11BP047425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-H11BP047426</t>
+  </si>
+  <si>
+    <t>1-H11BP047427</t>
+  </si>
+  <si>
+    <t>1-H11BP047428</t>
+  </si>
+  <si>
+    <t>1-H11BP047429</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +104,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -114,13 +139,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -134,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9504235D-1FC7-423C-8799-57BB98B307F6}" name="表1" displayName="表1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{133362CA-97C8-4A0F-BAE3-A02406930E00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9504235D-1FC7-423C-8799-57BB98B307F6}" name="表1" displayName="表1" ref="A2:D7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:D7" xr:uid="{133362CA-97C8-4A0F-BAE3-A02406930E00}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2149ABE8-C5CC-44FC-BE32-641EE1ABBA60}" name="CUST_NAME"/>
     <tableColumn id="2" xr3:uid="{F20DAB3E-C865-4F81-8F8F-306C2963C784}" name="ACCS_NBR"/>
@@ -409,102 +462,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>23423</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1">
+        <v>15356188306</v>
+      </c>
+      <c r="C3" s="1">
+        <v>171100017577603</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15356188306</v>
+      </c>
+      <c r="C4" s="1">
+        <v>171100017577603</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1">
+        <v>15356188306</v>
+      </c>
+      <c r="C5" s="1">
+        <v>171100017577603</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>23423</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="1">
+        <v>15356188306</v>
+      </c>
+      <c r="C6" s="1">
+        <v>171100017577603</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>23423</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>23423</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4456</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="B7" s="1">
+        <v>15356188306</v>
+      </c>
+      <c r="C7" s="1">
+        <v>171100017577603</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cpct-web/src/main/resources/file/trialOperationTemplate.xlsx
+++ b/cpct-web/src/main/resources/file/trialOperationTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPCT_BUSHU\cpct\cpct-web\src\main\resources\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCE32FC-B806-41BF-ABAE-B48A79BAA6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清单导入模板" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>客户名称</t>
   </si>
@@ -140,221 +146,229 @@
     <t>17320000760848</t>
   </si>
   <si>
+    <t>15305732021</t>
+  </si>
+  <si>
+    <t>COL_DESC</t>
+  </si>
+  <si>
+    <t>COL_NAME</t>
+  </si>
+  <si>
+    <t>字段描述(中文)</t>
+  </si>
+  <si>
+    <t>字段名称(英文)</t>
+  </si>
+  <si>
+    <t>COL1</t>
+  </si>
+  <si>
+    <t>扩展字段1</t>
+  </si>
+  <si>
+    <t>扩展字段按需增加，最多34个，自定义英文名和中文名（英文名称大写）</t>
+  </si>
+  <si>
+    <t>COL2</t>
+  </si>
+  <si>
+    <t>扩展字段2</t>
+  </si>
+  <si>
+    <t>COL3</t>
+  </si>
+  <si>
+    <t>扩展字段3</t>
+  </si>
+  <si>
+    <t>COL4</t>
+  </si>
+  <si>
+    <t>扩展字段4</t>
+  </si>
+  <si>
+    <t>COL5</t>
+  </si>
+  <si>
+    <t>扩展字段5</t>
+  </si>
+  <si>
+    <t>COL6</t>
+  </si>
+  <si>
+    <t>扩展字段6</t>
+  </si>
+  <si>
+    <t>COL7</t>
+  </si>
+  <si>
+    <t>扩展字段7</t>
+  </si>
+  <si>
+    <t>COL8</t>
+  </si>
+  <si>
+    <t>扩展字段8</t>
+  </si>
+  <si>
+    <t>COL9</t>
+  </si>
+  <si>
+    <t>扩展字段9</t>
+  </si>
+  <si>
+    <t>COL10</t>
+  </si>
+  <si>
+    <t>扩展字段10</t>
+  </si>
+  <si>
+    <t>COL11</t>
+  </si>
+  <si>
+    <t>扩展字段11</t>
+  </si>
+  <si>
+    <t>COL12</t>
+  </si>
+  <si>
+    <t>扩展字段12</t>
+  </si>
+  <si>
+    <t>COL13</t>
+  </si>
+  <si>
+    <t>扩展字段13</t>
+  </si>
+  <si>
+    <t>COL14</t>
+  </si>
+  <si>
+    <t>扩展字段14</t>
+  </si>
+  <si>
+    <t>COL15</t>
+  </si>
+  <si>
+    <t>扩展字段15</t>
+  </si>
+  <si>
+    <t>COL16</t>
+  </si>
+  <si>
+    <t>扩展字段16</t>
+  </si>
+  <si>
+    <t>COL17</t>
+  </si>
+  <si>
+    <t>扩展字段17</t>
+  </si>
+  <si>
+    <t>COL18</t>
+  </si>
+  <si>
+    <t>扩展字段18</t>
+  </si>
+  <si>
+    <t>COL19</t>
+  </si>
+  <si>
+    <t>扩展字段19</t>
+  </si>
+  <si>
+    <t>COL20</t>
+  </si>
+  <si>
+    <t>扩展字段20</t>
+  </si>
+  <si>
+    <t>COL21</t>
+  </si>
+  <si>
+    <t>扩展字段21</t>
+  </si>
+  <si>
+    <t>COL22</t>
+  </si>
+  <si>
+    <t>扩展字段22</t>
+  </si>
+  <si>
+    <t>COL23</t>
+  </si>
+  <si>
+    <t>扩展字段23</t>
+  </si>
+  <si>
+    <t>COL24</t>
+  </si>
+  <si>
+    <t>扩展字段24</t>
+  </si>
+  <si>
+    <t>COL25</t>
+  </si>
+  <si>
+    <t>扩展字段25</t>
+  </si>
+  <si>
+    <t>COL26</t>
+  </si>
+  <si>
+    <t>扩展字段26</t>
+  </si>
+  <si>
+    <t>COL27</t>
+  </si>
+  <si>
+    <t>扩展字段27</t>
+  </si>
+  <si>
+    <t>COL28</t>
+  </si>
+  <si>
+    <t>扩展字段28</t>
+  </si>
+  <si>
+    <t>COL29</t>
+  </si>
+  <si>
+    <t>扩展字段29</t>
+  </si>
+  <si>
+    <t>COL30</t>
+  </si>
+  <si>
+    <t>扩展字段30</t>
+  </si>
+  <si>
+    <t>资产唯一编号</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSET_ROW_ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须字段值不可为空</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>1-I81Cx046134</t>
-  </si>
-  <si>
-    <t>15305732021</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>COL_DESC</t>
-  </si>
-  <si>
-    <t>COL_NAME</t>
-  </si>
-  <si>
-    <t>字段描述(中文)</t>
-  </si>
-  <si>
-    <t>字段名称(英文)</t>
-  </si>
-  <si>
-    <t>COL1</t>
-  </si>
-  <si>
-    <t>扩展字段1</t>
-  </si>
-  <si>
-    <t>扩展字段按需增加，最多34个，自定义英文名和中文名（英文名称大写）</t>
-  </si>
-  <si>
-    <t>COL2</t>
-  </si>
-  <si>
-    <t>扩展字段2</t>
-  </si>
-  <si>
-    <t>COL3</t>
-  </si>
-  <si>
-    <t>扩展字段3</t>
-  </si>
-  <si>
-    <t>COL4</t>
-  </si>
-  <si>
-    <t>扩展字段4</t>
-  </si>
-  <si>
-    <t>COL5</t>
-  </si>
-  <si>
-    <t>扩展字段5</t>
-  </si>
-  <si>
-    <t>COL6</t>
-  </si>
-  <si>
-    <t>扩展字段6</t>
-  </si>
-  <si>
-    <t>COL7</t>
-  </si>
-  <si>
-    <t>扩展字段7</t>
-  </si>
-  <si>
-    <t>COL8</t>
-  </si>
-  <si>
-    <t>扩展字段8</t>
-  </si>
-  <si>
-    <t>COL9</t>
-  </si>
-  <si>
-    <t>扩展字段9</t>
-  </si>
-  <si>
-    <t>COL10</t>
-  </si>
-  <si>
-    <t>扩展字段10</t>
-  </si>
-  <si>
-    <t>COL11</t>
-  </si>
-  <si>
-    <t>扩展字段11</t>
-  </si>
-  <si>
-    <t>COL12</t>
-  </si>
-  <si>
-    <t>扩展字段12</t>
-  </si>
-  <si>
-    <t>COL13</t>
-  </si>
-  <si>
-    <t>扩展字段13</t>
-  </si>
-  <si>
-    <t>COL14</t>
-  </si>
-  <si>
-    <t>扩展字段14</t>
-  </si>
-  <si>
-    <t>COL15</t>
-  </si>
-  <si>
-    <t>扩展字段15</t>
-  </si>
-  <si>
-    <t>COL16</t>
-  </si>
-  <si>
-    <t>扩展字段16</t>
-  </si>
-  <si>
-    <t>COL17</t>
-  </si>
-  <si>
-    <t>扩展字段17</t>
-  </si>
-  <si>
-    <t>COL18</t>
-  </si>
-  <si>
-    <t>扩展字段18</t>
-  </si>
-  <si>
-    <t>COL19</t>
-  </si>
-  <si>
-    <t>扩展字段19</t>
-  </si>
-  <si>
-    <t>COL20</t>
-  </si>
-  <si>
-    <t>扩展字段20</t>
-  </si>
-  <si>
-    <t>COL21</t>
-  </si>
-  <si>
-    <t>扩展字段21</t>
-  </si>
-  <si>
-    <t>COL22</t>
-  </si>
-  <si>
-    <t>扩展字段22</t>
-  </si>
-  <si>
-    <t>COL23</t>
-  </si>
-  <si>
-    <t>扩展字段23</t>
-  </si>
-  <si>
-    <t>COL24</t>
-  </si>
-  <si>
-    <t>扩展字段24</t>
-  </si>
-  <si>
-    <t>COL25</t>
-  </si>
-  <si>
-    <t>扩展字段25</t>
-  </si>
-  <si>
-    <t>COL26</t>
-  </si>
-  <si>
-    <t>扩展字段26</t>
-  </si>
-  <si>
-    <t>COL27</t>
-  </si>
-  <si>
-    <t>扩展字段27</t>
-  </si>
-  <si>
-    <t>COL28</t>
-  </si>
-  <si>
-    <t>扩展字段28</t>
-  </si>
-  <si>
-    <t>COL29</t>
-  </si>
-  <si>
-    <t>扩展字段29</t>
-  </si>
-  <si>
-    <t>COL30</t>
-  </si>
-  <si>
-    <t>扩展字段30</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,150 +462,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,204 +507,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -837,270 +552,28 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="6" tint="0.399945066682943"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </left>
       <right style="thin">
-        <color theme="6" tint="0.399945066682943"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </right>
       <top style="thin">
-        <color theme="6" tint="0.399945066682943"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </top>
       <bottom style="medium">
         <color rgb="FFEBEEF5"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1163,67 +636,31 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="常规 25" xfId="17"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="常规 2 10" xfId="49"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="常规 2 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 25" xfId="1" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
-        <sz val="9"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFFFF"/>
@@ -1241,10 +678,97 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFEBEEF5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFEBEEF5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFEBEEF5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFFFF"/>
@@ -1265,16 +789,10 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="9"/>
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
       </font>
-      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFFFF"/>
@@ -1292,97 +810,10 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="9"/>
         <name val="Microsoft YaHei"/>
         <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
       </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FFEBEEF5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FFEBEEF5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color rgb="FFEBEEF5"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFFFF"/>
@@ -1402,28 +833,31 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:H123" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:H123" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="1" name="CCUST_NAME" dataDxfId="0"/>
-    <tableColumn id="2" name="CCUST_ID" dataDxfId="1"/>
-    <tableColumn id="3" name="ASSET_INTEG_ID" dataDxfId="2"/>
-    <tableColumn id="4" name="ASSET_NUMBER" dataDxfId="3"/>
-    <tableColumn id="5" name="LATN_ID" dataDxfId="4"/>
-    <tableColumn id="6" name="GIS_CLUSTER_ID" dataDxfId="5"/>
-    <tableColumn id="7" name="CLUSTER_NAME" dataDxfId="6"/>
-    <tableColumn id="8" name="CPRD_NAME" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CCUST_NAME" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CCUST_ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ASSET_INTEG_ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ASSET_NUMBER" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LATN_ID" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ASSET_ROW_ID" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CLUSTER_NAME" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CPRD_NAME" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1681,40 +1115,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="17" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.3796296296296" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="29.1296296296296" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.1296296296296" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.1296296296296" style="8" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="25" style="10" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="7" customWidth="1"/>
     <col min="12" max="12" width="21" style="7" customWidth="1"/>
-    <col min="13" max="13" width="22.8796296296296" style="7" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" style="7" customWidth="1"/>
     <col min="14" max="14" width="21" style="7" customWidth="1"/>
-    <col min="15" max="15" width="25.75" style="7" customWidth="1"/>
-    <col min="16" max="16" width="19.5" style="7" customWidth="1"/>
+    <col min="15" max="15" width="25.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" style="7" customWidth="1"/>
     <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15.6" spans="1:16">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="15.6">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1730,8 +1164,8 @@
       <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
+      <c r="F1" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>6</v>
@@ -1764,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="15.6" spans="1:16">
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="15.6">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1780,8 +1214,8 @@
       <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>21</v>
+      <c r="F2" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>22</v>
@@ -1814,7 +1248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="60" customHeight="1" spans="1:19">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="60" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>32</v>
       </c>
@@ -1830,8 +1264,8 @@
       <c r="E3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>34</v>
+      <c r="F3" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>34</v>
@@ -1867,7 +1301,7 @@
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" ht="14.55" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4" s="16" t="s">
         <v>38</v>
       </c>
@@ -1875,13 +1309,13 @@
         <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="9"/>
@@ -1891,7 +1325,7 @@
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
-    <row r="5" ht="14.55" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" s="16"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1904,7 +1338,7 @@
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" ht="14.55" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6" s="16"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1917,7 +1351,7 @@
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" ht="14.55" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1930,7 +1364,7 @@
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" ht="14.55" spans="1:15">
+    <row r="8" spans="1:19">
       <c r="A8" s="16"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1943,7 +1377,7 @@
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" ht="14.55" spans="1:15">
+    <row r="9" spans="1:19">
       <c r="A9" s="16"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1956,7 +1390,7 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" ht="14.55" spans="1:15">
+    <row r="10" spans="1:19">
       <c r="A10" s="16"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1969,7 +1403,7 @@
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" ht="14.55" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11" s="16"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1982,7 +1416,7 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" ht="14.55" spans="1:15">
+    <row r="12" spans="1:19">
       <c r="A12" s="16"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1995,7 +1429,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" ht="14.55" spans="1:15">
+    <row r="13" spans="1:19">
       <c r="A13" s="16"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2008,7 +1442,7 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" ht="14.55" spans="1:15">
+    <row r="14" spans="1:19">
       <c r="A14" s="16"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2021,7 +1455,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" ht="14.55" spans="1:15">
+    <row r="15" spans="1:19">
       <c r="A15" s="16"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2034,7 +1468,7 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" ht="14.55" spans="1:15">
+    <row r="16" spans="1:19">
       <c r="A16" s="16"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2047,7 +1481,7 @@
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" ht="14.55" spans="1:15">
+    <row r="17" spans="1:15">
       <c r="A17" s="16"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2060,7 +1494,7 @@
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" ht="14.55" spans="1:15">
+    <row r="18" spans="1:15">
       <c r="A18" s="16"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2073,7 +1507,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" ht="14.55" spans="1:15">
+    <row r="19" spans="1:15">
       <c r="A19" s="16"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2086,7 +1520,7 @@
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" ht="14.55" spans="1:15">
+    <row r="20" spans="1:15">
       <c r="A20" s="16"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2099,7 +1533,7 @@
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" ht="14.55" spans="1:15">
+    <row r="21" spans="1:15">
       <c r="A21" s="16"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2112,7 +1546,7 @@
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" ht="14.55" spans="1:15">
+    <row r="22" spans="1:15">
       <c r="A22" s="16"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2125,7 +1559,7 @@
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" ht="14.55" spans="1:15">
+    <row r="23" spans="1:15">
       <c r="A23" s="16"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2138,7 +1572,7 @@
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" ht="14.55" spans="1:15">
+    <row r="24" spans="1:15">
       <c r="A24" s="16"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2151,7 +1585,7 @@
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" ht="14.55" spans="1:15">
+    <row r="25" spans="1:15">
       <c r="A25" s="16"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2164,7 +1598,7 @@
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
     </row>
-    <row r="26" ht="14.55" spans="1:15">
+    <row r="26" spans="1:15">
       <c r="A26" s="16"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2177,7 +1611,7 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
     </row>
-    <row r="27" ht="14.55" spans="1:15">
+    <row r="27" spans="1:15">
       <c r="A27" s="16"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2190,7 +1624,7 @@
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" ht="14.55" spans="1:15">
+    <row r="28" spans="1:15">
       <c r="A28" s="16"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2203,7 +1637,7 @@
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" ht="14.55" spans="1:15">
+    <row r="29" spans="1:15">
       <c r="A29" s="16"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2216,7 +1650,7 @@
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" ht="14.55" spans="1:15">
+    <row r="30" spans="1:15">
       <c r="A30" s="16"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2229,7 +1663,7 @@
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" ht="14.55" spans="1:15">
+    <row r="31" spans="1:15">
       <c r="A31" s="16"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2242,7 +1676,7 @@
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" ht="14.55" spans="1:15">
+    <row r="32" spans="1:15">
       <c r="A32" s="16"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2255,7 +1689,7 @@
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
-    <row r="33" ht="14.55" spans="1:15">
+    <row r="33" spans="1:15">
       <c r="A33" s="16"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2268,7 +1702,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
     </row>
-    <row r="34" ht="14.55" spans="1:15">
+    <row r="34" spans="1:15">
       <c r="A34" s="16"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2281,7 +1715,7 @@
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" ht="14.55" spans="1:15">
+    <row r="35" spans="1:15">
       <c r="A35" s="16"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2294,7 +1728,7 @@
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" ht="14.55" spans="1:15">
+    <row r="36" spans="1:15">
       <c r="A36" s="16"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2307,7 +1741,7 @@
       <c r="N36" s="20"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" ht="14.55" spans="1:15">
+    <row r="37" spans="1:15">
       <c r="A37" s="16"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2320,7 +1754,7 @@
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" ht="14.55" spans="1:15">
+    <row r="38" spans="1:15">
       <c r="A38" s="16"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2333,7 +1767,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" ht="14.55" spans="1:15">
+    <row r="39" spans="1:15">
       <c r="A39" s="16"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2346,7 +1780,7 @@
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
     </row>
-    <row r="40" ht="14.55" spans="1:15">
+    <row r="40" spans="1:15">
       <c r="A40" s="16"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2359,7 +1793,7 @@
       <c r="N40" s="20"/>
       <c r="O40" s="20"/>
     </row>
-    <row r="41" ht="14.55" spans="1:15">
+    <row r="41" spans="1:15">
       <c r="A41" s="16"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2372,7 +1806,7 @@
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" ht="14.55" spans="1:15">
+    <row r="42" spans="1:15">
       <c r="A42" s="16"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2385,7 +1819,7 @@
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" ht="14.55" spans="1:15">
+    <row r="43" spans="1:15">
       <c r="A43" s="16"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2398,7 +1832,7 @@
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" ht="14.55" spans="1:15">
+    <row r="44" spans="1:15">
       <c r="A44" s="16"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2411,7 +1845,7 @@
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" ht="14.55" spans="1:15">
+    <row r="45" spans="1:15">
       <c r="A45" s="16"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2424,7 +1858,7 @@
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
     </row>
-    <row r="46" ht="14.55" spans="1:15">
+    <row r="46" spans="1:15">
       <c r="A46" s="16"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2437,7 +1871,7 @@
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
     </row>
-    <row r="47" ht="14.55" spans="1:15">
+    <row r="47" spans="1:15">
       <c r="A47" s="16"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2450,7 +1884,7 @@
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
     </row>
-    <row r="48" ht="14.55" spans="1:15">
+    <row r="48" spans="1:15">
       <c r="A48" s="16"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2463,7 +1897,7 @@
       <c r="N48" s="20"/>
       <c r="O48" s="20"/>
     </row>
-    <row r="49" ht="14.55" spans="1:15">
+    <row r="49" spans="1:15">
       <c r="A49" s="16"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2476,7 +1910,7 @@
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" ht="14.55" spans="1:15">
+    <row r="50" spans="1:15">
       <c r="A50" s="16"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2489,7 +1923,7 @@
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" ht="14.55" spans="1:15">
+    <row r="51" spans="1:15">
       <c r="A51" s="16"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2502,7 +1936,7 @@
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
     </row>
-    <row r="52" ht="14.55" spans="1:15">
+    <row r="52" spans="1:15">
       <c r="A52" s="16"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2515,7 +1949,7 @@
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
     </row>
-    <row r="53" ht="14.55" spans="1:15">
+    <row r="53" spans="1:15">
       <c r="A53" s="16"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2528,7 +1962,7 @@
       <c r="N53" s="20"/>
       <c r="O53" s="20"/>
     </row>
-    <row r="54" ht="14.55" spans="1:15">
+    <row r="54" spans="1:15">
       <c r="A54" s="16"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2541,7 +1975,7 @@
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
     </row>
-    <row r="55" ht="14.55" spans="1:15">
+    <row r="55" spans="1:15">
       <c r="A55" s="16"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2554,7 +1988,7 @@
       <c r="N55" s="20"/>
       <c r="O55" s="20"/>
     </row>
-    <row r="56" ht="14.55" spans="1:15">
+    <row r="56" spans="1:15">
       <c r="A56" s="16"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2567,7 +2001,7 @@
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
     </row>
-    <row r="57" ht="14.55" spans="1:15">
+    <row r="57" spans="1:15">
       <c r="A57" s="16"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2580,7 +2014,7 @@
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
     </row>
-    <row r="58" ht="14.55" spans="1:15">
+    <row r="58" spans="1:15">
       <c r="A58" s="16"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2593,7 +2027,7 @@
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
     </row>
-    <row r="59" ht="14.55" spans="1:15">
+    <row r="59" spans="1:15">
       <c r="A59" s="16"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2606,7 +2040,7 @@
       <c r="N59" s="20"/>
       <c r="O59" s="20"/>
     </row>
-    <row r="60" ht="14.55" spans="1:15">
+    <row r="60" spans="1:15">
       <c r="A60" s="16"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2619,7 +2053,7 @@
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
     </row>
-    <row r="61" ht="14.55" spans="1:15">
+    <row r="61" spans="1:15">
       <c r="A61" s="16"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2632,7 +2066,7 @@
       <c r="N61" s="20"/>
       <c r="O61" s="20"/>
     </row>
-    <row r="62" ht="14.55" spans="1:15">
+    <row r="62" spans="1:15">
       <c r="A62" s="16"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2645,7 +2079,7 @@
       <c r="N62" s="20"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" ht="14.55" spans="1:15">
+    <row r="63" spans="1:15">
       <c r="A63" s="16"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2658,7 +2092,7 @@
       <c r="N63" s="20"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" ht="14.55" spans="1:15">
+    <row r="64" spans="1:15">
       <c r="A64" s="16"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2671,7 +2105,7 @@
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" ht="14.55" spans="1:15">
+    <row r="65" spans="1:15">
       <c r="A65" s="16"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -2684,7 +2118,7 @@
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" ht="14.55" spans="1:15">
+    <row r="66" spans="1:15">
       <c r="A66" s="16"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2697,7 +2131,7 @@
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
     </row>
-    <row r="67" ht="14.55" spans="1:15">
+    <row r="67" spans="1:15">
       <c r="A67" s="16"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -2710,7 +2144,7 @@
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
     </row>
-    <row r="68" ht="14.55" spans="1:15">
+    <row r="68" spans="1:15">
       <c r="A68" s="16"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2723,7 +2157,7 @@
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
     </row>
-    <row r="69" ht="14.55" spans="1:15">
+    <row r="69" spans="1:15">
       <c r="A69" s="16"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2736,7 +2170,7 @@
       <c r="N69" s="20"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" ht="14.55" spans="1:15">
+    <row r="70" spans="1:15">
       <c r="A70" s="16"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2749,7 +2183,7 @@
       <c r="N70" s="20"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" ht="14.55" spans="1:15">
+    <row r="71" spans="1:15">
       <c r="A71" s="16"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -2762,7 +2196,7 @@
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" ht="14.55" spans="1:15">
+    <row r="72" spans="1:15">
       <c r="A72" s="16"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -2775,7 +2209,7 @@
       <c r="N72" s="20"/>
       <c r="O72" s="20"/>
     </row>
-    <row r="73" ht="14.55" spans="1:15">
+    <row r="73" spans="1:15">
       <c r="A73" s="16"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -2788,7 +2222,7 @@
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" ht="14.55" spans="1:15">
+    <row r="74" spans="1:15">
       <c r="A74" s="16"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -2801,7 +2235,7 @@
       <c r="N74" s="20"/>
       <c r="O74" s="20"/>
     </row>
-    <row r="75" ht="14.55" spans="1:15">
+    <row r="75" spans="1:15">
       <c r="A75" s="16"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -2814,7 +2248,7 @@
       <c r="N75" s="20"/>
       <c r="O75" s="20"/>
     </row>
-    <row r="76" ht="14.55" spans="1:15">
+    <row r="76" spans="1:15">
       <c r="A76" s="16"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -2827,7 +2261,7 @@
       <c r="N76" s="20"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" ht="14.55" spans="1:15">
+    <row r="77" spans="1:15">
       <c r="A77" s="16"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -2840,7 +2274,7 @@
       <c r="N77" s="20"/>
       <c r="O77" s="20"/>
     </row>
-    <row r="78" ht="14.55" spans="1:15">
+    <row r="78" spans="1:15">
       <c r="A78" s="16"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -2853,7 +2287,7 @@
       <c r="N78" s="20"/>
       <c r="O78" s="20"/>
     </row>
-    <row r="79" ht="14.55" spans="1:15">
+    <row r="79" spans="1:15">
       <c r="A79" s="16"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2866,7 +2300,7 @@
       <c r="N79" s="20"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" ht="14.55" spans="1:15">
+    <row r="80" spans="1:15">
       <c r="A80" s="16"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -2879,7 +2313,7 @@
       <c r="N80" s="20"/>
       <c r="O80" s="20"/>
     </row>
-    <row r="81" ht="14.55" spans="1:15">
+    <row r="81" spans="1:15">
       <c r="A81" s="16"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -2892,7 +2326,7 @@
       <c r="N81" s="20"/>
       <c r="O81" s="20"/>
     </row>
-    <row r="82" ht="14.55" spans="1:15">
+    <row r="82" spans="1:15">
       <c r="A82" s="16"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -2905,7 +2339,7 @@
       <c r="N82" s="20"/>
       <c r="O82" s="20"/>
     </row>
-    <row r="83" ht="14.55" spans="1:15">
+    <row r="83" spans="1:15">
       <c r="A83" s="16"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -2918,7 +2352,7 @@
       <c r="N83" s="20"/>
       <c r="O83" s="20"/>
     </row>
-    <row r="84" ht="14.55" spans="1:15">
+    <row r="84" spans="1:15">
       <c r="A84" s="16"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -2931,7 +2365,7 @@
       <c r="N84" s="20"/>
       <c r="O84" s="20"/>
     </row>
-    <row r="85" ht="14.55" spans="1:15">
+    <row r="85" spans="1:15">
       <c r="A85" s="16"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -2944,7 +2378,7 @@
       <c r="N85" s="20"/>
       <c r="O85" s="20"/>
     </row>
-    <row r="86" ht="14.55" spans="1:15">
+    <row r="86" spans="1:15">
       <c r="A86" s="16"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -2957,7 +2391,7 @@
       <c r="N86" s="20"/>
       <c r="O86" s="20"/>
     </row>
-    <row r="87" ht="14.55" spans="1:15">
+    <row r="87" spans="1:15">
       <c r="A87" s="16"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -2970,7 +2404,7 @@
       <c r="N87" s="20"/>
       <c r="O87" s="20"/>
     </row>
-    <row r="88" ht="14.55" spans="1:15">
+    <row r="88" spans="1:15">
       <c r="A88" s="16"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2983,7 +2417,7 @@
       <c r="N88" s="20"/>
       <c r="O88" s="20"/>
     </row>
-    <row r="89" ht="14.55" spans="1:15">
+    <row r="89" spans="1:15">
       <c r="A89" s="16"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -2996,7 +2430,7 @@
       <c r="N89" s="20"/>
       <c r="O89" s="20"/>
     </row>
-    <row r="90" ht="14.55" spans="1:15">
+    <row r="90" spans="1:15">
       <c r="A90" s="16"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3009,7 +2443,7 @@
       <c r="N90" s="20"/>
       <c r="O90" s="20"/>
     </row>
-    <row r="91" ht="14.55" spans="1:15">
+    <row r="91" spans="1:15">
       <c r="A91" s="16"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3022,7 +2456,7 @@
       <c r="N91" s="20"/>
       <c r="O91" s="20"/>
     </row>
-    <row r="92" ht="14.55" spans="1:15">
+    <row r="92" spans="1:15">
       <c r="A92" s="16"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3035,7 +2469,7 @@
       <c r="N92" s="20"/>
       <c r="O92" s="20"/>
     </row>
-    <row r="93" ht="14.55" spans="1:15">
+    <row r="93" spans="1:15">
       <c r="A93" s="16"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3048,7 +2482,7 @@
       <c r="N93" s="20"/>
       <c r="O93" s="20"/>
     </row>
-    <row r="94" ht="14.55" spans="1:15">
+    <row r="94" spans="1:15">
       <c r="A94" s="16"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3061,7 +2495,7 @@
       <c r="N94" s="20"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" ht="14.55" spans="1:15">
+    <row r="95" spans="1:15">
       <c r="A95" s="16"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3074,7 +2508,7 @@
       <c r="N95" s="20"/>
       <c r="O95" s="20"/>
     </row>
-    <row r="96" ht="14.55" spans="1:15">
+    <row r="96" spans="1:15">
       <c r="A96" s="16"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3087,7 +2521,7 @@
       <c r="N96" s="20"/>
       <c r="O96" s="20"/>
     </row>
-    <row r="97" ht="14.55" spans="1:15">
+    <row r="97" spans="1:15">
       <c r="A97" s="16"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3100,7 +2534,7 @@
       <c r="N97" s="20"/>
       <c r="O97" s="20"/>
     </row>
-    <row r="98" ht="14.55" spans="1:15">
+    <row r="98" spans="1:15">
       <c r="A98" s="16"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -3113,7 +2547,7 @@
       <c r="N98" s="20"/>
       <c r="O98" s="20"/>
     </row>
-    <row r="99" ht="14.55" spans="1:15">
+    <row r="99" spans="1:15">
       <c r="A99" s="16"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3126,7 +2560,7 @@
       <c r="N99" s="20"/>
       <c r="O99" s="20"/>
     </row>
-    <row r="100" ht="14.55" spans="1:15">
+    <row r="100" spans="1:15">
       <c r="A100" s="16"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -3139,7 +2573,7 @@
       <c r="N100" s="20"/>
       <c r="O100" s="20"/>
     </row>
-    <row r="101" ht="14.55" spans="1:15">
+    <row r="101" spans="1:15">
       <c r="A101" s="16"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -3152,7 +2586,7 @@
       <c r="N101" s="20"/>
       <c r="O101" s="20"/>
     </row>
-    <row r="102" ht="14.55" spans="1:15">
+    <row r="102" spans="1:15">
       <c r="A102" s="16"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -3165,7 +2599,7 @@
       <c r="N102" s="20"/>
       <c r="O102" s="20"/>
     </row>
-    <row r="103" ht="14.55" spans="1:15">
+    <row r="103" spans="1:15">
       <c r="A103" s="16"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -3178,7 +2612,7 @@
       <c r="N103" s="20"/>
       <c r="O103" s="20"/>
     </row>
-    <row r="104" ht="14.55" spans="1:15">
+    <row r="104" spans="1:15">
       <c r="A104" s="16"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -3191,7 +2625,7 @@
       <c r="N104" s="20"/>
       <c r="O104" s="20"/>
     </row>
-    <row r="105" ht="14.55" spans="1:15">
+    <row r="105" spans="1:15">
       <c r="A105" s="16"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -3204,7 +2638,7 @@
       <c r="N105" s="20"/>
       <c r="O105" s="20"/>
     </row>
-    <row r="106" ht="14.55" spans="1:15">
+    <row r="106" spans="1:15">
       <c r="A106" s="16"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3217,7 +2651,7 @@
       <c r="N106" s="20"/>
       <c r="O106" s="20"/>
     </row>
-    <row r="107" ht="14.55" spans="1:15">
+    <row r="107" spans="1:15">
       <c r="A107" s="16"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -3230,7 +2664,7 @@
       <c r="N107" s="20"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" ht="14.55" spans="1:15">
+    <row r="108" spans="1:15">
       <c r="A108" s="16"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -3243,7 +2677,7 @@
       <c r="N108" s="20"/>
       <c r="O108" s="20"/>
     </row>
-    <row r="109" ht="14.55" spans="1:15">
+    <row r="109" spans="1:15">
       <c r="A109" s="16"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -3256,7 +2690,7 @@
       <c r="N109" s="20"/>
       <c r="O109" s="20"/>
     </row>
-    <row r="110" ht="14.55" spans="1:15">
+    <row r="110" spans="1:15">
       <c r="A110" s="16"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -3269,7 +2703,7 @@
       <c r="N110" s="20"/>
       <c r="O110" s="20"/>
     </row>
-    <row r="111" ht="14.55" spans="1:15">
+    <row r="111" spans="1:15">
       <c r="A111" s="16"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -3282,7 +2716,7 @@
       <c r="N111" s="20"/>
       <c r="O111" s="20"/>
     </row>
-    <row r="112" ht="14.55" spans="1:15">
+    <row r="112" spans="1:15">
       <c r="A112" s="16"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -3295,7 +2729,7 @@
       <c r="N112" s="20"/>
       <c r="O112" s="20"/>
     </row>
-    <row r="113" ht="14.55" spans="1:15">
+    <row r="113" spans="1:15">
       <c r="A113" s="16"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3308,7 +2742,7 @@
       <c r="N113" s="20"/>
       <c r="O113" s="20"/>
     </row>
-    <row r="114" ht="14.55" spans="1:15">
+    <row r="114" spans="1:15">
       <c r="A114" s="16"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -3321,7 +2755,7 @@
       <c r="N114" s="20"/>
       <c r="O114" s="20"/>
     </row>
-    <row r="115" ht="14.55" spans="1:15">
+    <row r="115" spans="1:15">
       <c r="A115" s="16"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -3334,7 +2768,7 @@
       <c r="N115" s="20"/>
       <c r="O115" s="20"/>
     </row>
-    <row r="116" ht="14.55" spans="1:15">
+    <row r="116" spans="1:15">
       <c r="A116" s="16"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -3347,7 +2781,7 @@
       <c r="N116" s="20"/>
       <c r="O116" s="20"/>
     </row>
-    <row r="117" ht="14.55" spans="1:15">
+    <row r="117" spans="1:15">
       <c r="A117" s="16"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3360,7 +2794,7 @@
       <c r="N117" s="20"/>
       <c r="O117" s="20"/>
     </row>
-    <row r="118" ht="14.55" spans="1:15">
+    <row r="118" spans="1:15">
       <c r="A118" s="16"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -3373,7 +2807,7 @@
       <c r="N118" s="20"/>
       <c r="O118" s="20"/>
     </row>
-    <row r="119" ht="14.55" spans="1:15">
+    <row r="119" spans="1:15">
       <c r="A119" s="16"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -3386,7 +2820,7 @@
       <c r="N119" s="20"/>
       <c r="O119" s="20"/>
     </row>
-    <row r="120" ht="14.55" spans="1:15">
+    <row r="120" spans="1:15">
       <c r="A120" s="16"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -3399,7 +2833,7 @@
       <c r="N120" s="20"/>
       <c r="O120" s="20"/>
     </row>
-    <row r="121" ht="14.55" spans="1:15">
+    <row r="121" spans="1:15">
       <c r="A121" s="16"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -3412,7 +2846,7 @@
       <c r="N121" s="20"/>
       <c r="O121" s="20"/>
     </row>
-    <row r="122" ht="14.55" spans="1:15">
+    <row r="122" spans="1:15">
       <c r="A122" s="16"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -3425,7 +2859,7 @@
       <c r="N122" s="20"/>
       <c r="O122" s="20"/>
     </row>
-    <row r="123" ht="14.55" spans="1:15">
+    <row r="123" spans="1:15">
       <c r="A123" s="16"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -3438,7 +2872,7 @@
       <c r="N123" s="20"/>
       <c r="O123" s="20"/>
     </row>
-    <row r="124" ht="12" customHeight="1" spans="3:15">
+    <row r="124" spans="1:15" ht="12" customHeight="1">
       <c r="C124" s="9"/>
       <c r="I124" s="20"/>
       <c r="K124" s="20"/>
@@ -3447,11 +2881,10 @@
       <c r="N124" s="20"/>
       <c r="O124" s="20"/>
     </row>
-    <row r="125" ht="14.55"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3459,35 +2892,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="14.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="30.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3666,280 +3098,280 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" ht="14.4" spans="1:3">
+    <row r="19" spans="1:3" ht="14.4">
       <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="14.4">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" ht="14.4" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.4">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" ht="14.4" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.4">
+      <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" ht="14.4" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.4">
+      <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" ht="14.4" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.4">
+      <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.4">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.4">
+      <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.4">
+      <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" ht="14.4" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.4">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" ht="14.4" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.4">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" ht="14.4" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.4">
+      <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" ht="14.4" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.4">
+      <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" ht="14.4" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.4">
+      <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" ht="14.4" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.4">
+      <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" ht="14.4" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.4">
+      <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" ht="14.4" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.4">
+      <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" ht="14.4" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.4">
+      <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" ht="14.4" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.4">
+      <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" ht="14.4" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.4">
+      <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" ht="14.4" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.4">
+      <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" ht="14.4" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.4">
+      <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" ht="14.4" spans="1:3">
-      <c r="A40" s="2" t="s">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.4">
+      <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" ht="14.4" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="14.4">
+      <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" ht="14.4" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.4">
+      <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" ht="14.4" spans="1:3">
-      <c r="A43" s="2" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="14.4">
+      <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" ht="14.4" spans="1:3">
-      <c r="A44" s="2" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="14.4">
+      <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" ht="14.4" spans="1:3">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="14.4">
+      <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" ht="14.4" spans="1:3">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="14.4">
+      <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" ht="14.4" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="14.4">
+      <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" ht="14.4" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C48" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>